--- a/biology/Zoologie/Azuré_d'Anatolie/Azuré_d'Anatolie.xlsx
+++ b/biology/Zoologie/Azuré_d'Anatolie/Azuré_d'Anatolie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Azur%C3%A9_d%27Anatolie</t>
+          <t>Azuré_d'Anatolie</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Turanana endymion
 L'Azuré d'Anatolie (Turanana endymion) est une espèce de lépidoptères (papillons) de la famille des Lycaenidae. Cet Azuré de très petite taille se rencontre de la Turquie jusqu'à l'Iran. 
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Azur%C3%A9_d%27Anatolie</t>
+          <t>Azuré_d'Anatolie</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Morphologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'imago de l’Azuré d'Anatolie est un papillon de très petite taille, qui présente un dimorphisme sexuel : le dessus du mâle est bleu foncé largement bordé de brun, tandis que celui de la femelle est brun.
 Le revers des ailes a un fond gris clair, orné de plusieurs séries de points noirs cerclés de blancs, ainsi que de lunules orange près de l'angle anal de l'aile postérieure.
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Azur%C3%A9_d%27Anatolie</t>
+          <t>Azuré_d'Anatolie</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,7 +561,9 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L’Azuré d'Anatolie est présent en Anatolie orientale, en Arménie, en Syrie, au Liban, en Israël au Turkestan et en Iran. Il réside sur des rochers calcaires jusqu'à 1 800 m d'altitude[réf. souhaitée].
 </t>
@@ -560,7 +576,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Azur%C3%A9_d%27Anatolie</t>
+          <t>Azuré_d'Anatolie</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -578,10 +594,12 @@
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">L’Azuré d'Anatolie est univoltin. Le papillon vole de mai à juillet, et l'espèce hiverne au stade de chrysalide[réf. souhaitée].
-Les plantes hôtes de sa chenille sont des Acantholimon[1].
+Les plantes hôtes de sa chenille sont des Acantholimon.
 </t>
         </is>
       </c>
@@ -592,7 +610,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Azur%C3%A9_d%27Anatolie</t>
+          <t>Azuré_d'Anatolie</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -612,17 +630,56 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Description originale et synonymes
-L'espèce actuellement appelée Turanana endymion a été décrite vers 1850 par l'entomologiste allemand Christian Friedrich Freyer sous le nom de Papilio endymion[à vérifier], et en 1851 par l'entomologiste allemand Gottlieb August Wilhelm Herrich-Schäffer sous le nom de Lycaena panagaea[1]. En raison d'incertitudes sur les dates exactes de ces premières publications, deux binoms sont actuellement en concurrence pour désigner l'espèce : Turanana endymion et Turanana panagaea. 
-On trouve les synonymes et autres combinaisons suivants[1],[2] : 
-Papilio endymion Freyer, [1850] — protonyme supposé pour la combinaison actuelle Turanana endymion (Freyer, [1850])[à vérifier]
+          <t>Description originale et synonymes</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>L'espèce actuellement appelée Turanana endymion a été décrite vers 1850 par l'entomologiste allemand Christian Friedrich Freyer sous le nom de Papilio endymion[à vérifier], et en 1851 par l'entomologiste allemand Gottlieb August Wilhelm Herrich-Schäffer sous le nom de Lycaena panagaea. En raison d'incertitudes sur les dates exactes de ces premières publications, deux binoms sont actuellement en concurrence pour désigner l'espèce : Turanana endymion et Turanana panagaea. 
+On trouve les synonymes et autres combinaisons suivants, : 
+Papilio endymion Freyer,  — protonyme supposé pour la combinaison actuelle Turanana endymion (Freyer, )[à vérifier]
 Lycaena endymion Freyer, 1850 ou Freyer, 1852
 Lycaena endymion Gerhard, 1851
-Lycaena panagaea Herrich-Schäffer, [1851]
-Actizera panagaea (Herrich-Schäffer, [1851])
-Turanana panagaea (Herrich-Schäffer, [1851])
-Espèce proche
-Cette espèce a été séparée en 2005 du très ressemblant Turanana taygetica (Rebel, 1902), qui est présent dans le Péloponnèse et en Anatolie occidentale (Turquie)[3].
+Lycaena panagaea Herrich-Schäffer, 
+Actizera panagaea (Herrich-Schäffer, )
+Turanana panagaea (Herrich-Schäffer, )</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Azuré_d'Anatolie</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Azur%C3%A9_d%27Anatolie</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Espèce proche</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a été séparée en 2005 du très ressemblant Turanana taygetica (Rebel, 1902), qui est présent dans le Péloponnèse et en Anatolie occidentale (Turquie).
 </t>
         </is>
       </c>
